--- a/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>248117075.3548216</v>
+        <v>381115231.3985204</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>4408.53082156973</v>
+        <v>74.9060203358531</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1.481170753548215</v>
+        <v>2.811152313985203</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1213126930706343</v>
+        <v>0.1836221791526038</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.481170753548215</v>
+        <v>3.811152313985203</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>72.51209494356408</v>
+        <v>58.0525672783454</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.1109023717512691</v>
+        <v>0.09339103635363893</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1408692993507256</v>
+        <v>0.109109411908094</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.5780705661600785</v>
+        <v>1.205623397556719</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1004811435380766</v>
+        <v>0.07411239759428764</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.8104246504657791</v>
+        <v>1.774937313594491</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.160751304097068</v>
+        <v>0.09099027550283691</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01425924891929252</v>
+        <v>0.01067342624313763</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.3191976157457116</v>
+        <v>-0.03167831782153405</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.04729015177421703</v>
+        <v>-0.00404784256683588</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.06474912959227319</v>
+        <v>0.131908297086184</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.2550270807746115</v>
+        <v>0.1568571509013789</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>0.8417847943056989</v>
+        <v>1.736127908690756</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>-0.05544778725291021</v>
+        <v>0.1261630290528271</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.6743216410090681</v>
+        <v>0.5800230377724636</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2612817912084741</v>
+        <v>0.2823724775417414</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.06141786638133223</v>
+        <v>0.1275390721401885</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.2773112776520267</v>
+        <v>0.1635530973743703</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.5815014722615711</v>
+        <v>1.122603315202624</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>0.8334368787469675</v>
+        <v>2.002847915172635</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0.8809460068799861</v>
+        <v>1.588260930270931</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03331355726091799</v>
+        <v>0.03747289852792651</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1408392471066544</v>
+        <v>0.08204510020942411</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.2166300000000001</v>
+        <v>0.617273</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.09474271934397374</v>
+        <v>0.468711720297182</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>2.43166752123641</v>
+        <v>3.72088634081373</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>3.067960843415031</v>
+        <v>5.841415328464579</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.675375422273</v>
+        <v>0.3361361996397666</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.2337023572026875</v>
+        <v>-0.4212758531655321</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.291989457162567</v>
+        <v>3.267113889175</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>2.277752615643537</v>
+        <v>3.339233399141578</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.01722847140182629</v>
+        <v>-0.0501361240262727</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.2798359954267656</v>
+        <v>0.1898185678059805</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>0.2118601635964807</v>
+        <v>-0.5041464668196034</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.6115741713957403</v>
+        <v>-0.2166682988148594</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.04503506027937317</v>
+        <v>0.2177443950426748</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.1416671145191026</v>
+        <v>0.3377572894601957</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.248900423497499</v>
+        <v>1.755923065784963</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.592406190568288</v>
+        <v>2.34618103575715</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.02350694986076446</v>
+        <v>0.0119452320492446</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2844002699963621</v>
+        <v>0.3248610687752148</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.1978337959651493</v>
+        <v>0.2050538053117738</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.2571982138832283</v>
+        <v>0.6152425998549055</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.1613590809647656</v>
+        <v>0.2234512609573682</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.2268966023748102</v>
+        <v>-0.1899646625058183</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.221693291117451</v>
+        <v>2.069475069259256</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.1235324252819081</v>
+        <v>1.462442640820527</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.02729311931944277</v>
+        <v>0.1772363787245492</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.4117572545041149</v>
+        <v>-0.335805496594534</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.2520066931011994</v>
+        <v>1.564475368194677</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-2.245933031333861</v>
+        <v>0.2646269050738799</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.3653846153846154</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.05820303261865566</v>
+        <v>0.04562039287422244</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.2028198624788573</v>
+        <v>-0.1202309129728015</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.3636579383335937</v>
+        <v>0.5180140103736537</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.8030946134769931</v>
+        <v>0.2725725030610245</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.04363665271881987</v>
+        <v>0.0005142821589768053</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1927975539044538</v>
+        <v>0.1413403953450522</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.040924128712555</v>
+        <v>0.05175287414465798</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.512796509098662</v>
+        <v>0.3000062184978513</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.008681000000000272</v>
+        <v>-0.0354549999999999</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.007511204768596347</v>
+        <v>0.01524967730899029</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.006274749315404948</v>
+        <v>0.02116406979190288</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.009964856840378733</v>
+        <v>0.05715220019620371</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.003527915456132069</v>
+        <v>0.00490100555277051</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.01607750817766651</v>
+        <v>0.05246862736053703</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.009565171182748244</v>
+        <v>0.01912706867051472</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.04671429460094423</v>
+        <v>0.1716589113542339</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.112380990695033</v>
+        <v>0.211415041482276</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.009072602188011314</v>
+        <v>0.002663743227024673</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.08656328177360106</v>
+        <v>0.04082682271190952</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.06937429768418957</v>
+        <v>0.1075984204149223</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1240179922031888</v>
+        <v>0.06805970724108668</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1617146918149048</v>
+        <v>0.03308394495091194</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.03455854134024616</v>
+        <v>-0.0009628278632494158</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.0005164294790629409</v>
+        <v>0.003885595490438654</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01810305600141238</v>
+        <v>0.005487034096375076</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.003852974367241746</v>
+        <v>0.003611939351341853</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1052569311790186</v>
+        <v>0.02029307914171552</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.04839809891479829</v>
+        <v>0.01460757717888206</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.01834706859152935</v>
+        <v>-6.385829012456323e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.05424390377920563</v>
+        <v>-0.02299924522084984</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.0006499818959546655</v>
+        <v>0.00270841484313622</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.05008608091554301</v>
+        <v>0.0156420944430482</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.02088501516823327</v>
+        <v>-0.01761976233808982</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.007076049634197279</v>
+        <v>0.01007458764687619</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01048692663857587</v>
+        <v>0.005523512661565366</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.01884912475412404</v>
+        <v>-0.02187758861723932</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.005071163084967356</v>
+        <v>0.004468428143663328</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.002740520069809405</v>
+        <v>-0.02475597263875973</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.005901781729134026</v>
+        <v>-0.01009157976060004</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.00157340107912296</v>
+        <v>0.03372481794908722</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.003818147225681634</v>
+        <v>-0.02415000042788829</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.000370400915584379</v>
+        <v>0.0009407773129916919</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.003029921439154482</v>
+        <v>0.02907827688539566</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.001370409261253869</v>
+        <v>0.006513009464439223</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.003152095072029848</v>
+        <v>0.01460150375939873</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002766296103338783</v>
+        <v>-0.004936843236353461</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01194242704344428</v>
+        <v>0.06244143933219548</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01610480173631945</v>
+        <v>0.01928183362299341</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01119555278684015</v>
+        <v>0.0245390756799162</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.002616654967303234</v>
+        <v>0.003084742961160902</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.008863090538759</v>
+        <v>0.04915349934337598</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.009801083702999258</v>
+        <v>-0.002208051114848453</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.000919863094862583</v>
+        <v>-0.001405109372402791</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01417247321633797</v>
+        <v>0.02370082548806907</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.02290769346284349</v>
+        <v>-0.03040647883657954</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01863285479758314</v>
+        <v>0.01187498715199009</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.0121731926409453</v>
+        <v>-0.005225881237576835</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.03800592254408275</v>
+        <v>0.03889365631523356</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.01788313226365756</v>
+        <v>-0.02182393687324191</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02876917195670925</v>
+        <v>-0.006664094864052283</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.01853309648466761</v>
+        <v>-0.01410943139800691</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.0008587538115243376</v>
+        <v>0.001056210942828262</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.001266324570265542</v>
+        <v>0.00294381982729397</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01879309017318298</v>
+        <v>-0.0004220021416712072</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.0248944405774445</v>
+        <v>0.01409392609639548</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.007924396147024337</v>
+        <v>-0.01481488510082463</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1284805326463099</v>
+        <v>0.141447246973766</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.03236873722453337</v>
+        <v>0.0205361867143401</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.01639355658394126</v>
+        <v>-0.005594681194464601</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.0118417732228091</v>
+        <v>-0.0034442894325587</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.008670540902242285</v>
+        <v>0.005432154558806523</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.0187870071757843</v>
+        <v>-0.008017077651242044</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01144076046157516</v>
+        <v>0.01530804659719287</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.0118556094444775</v>
+        <v>0.01477514244234235</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.004221235435117654</v>
+        <v>0.006579561646727461</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.003290246476892689</v>
+        <v>-0.02116809688444088</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.01970663918994009</v>
+        <v>0.0625239275562004</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.01670949169124003</v>
+        <v>0.03029147522696474</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.03562957252518273</v>
+        <v>-0.03929369890649292</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.06159801206226934</v>
+        <v>8.42313384323834e-05</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.007579212188307594</v>
+        <v>0.005795476766350394</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01754345918473454</v>
+        <v>0.01683152634660656</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.04221487112719324</v>
+        <v>0.0797746597200899</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.09559882394674779</v>
+        <v>0.07480788758375079</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.03656333307138515</v>
+        <v>-0.001745949496183008</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.03757017005515606</v>
+        <v>-0.03196614626383365</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01438240374142941</v>
+        <v>-0.01369925785724924</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02557141504726612</v>
+        <v>0.02624184676668451</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01755315911314326</v>
+        <v>0.02438446916440706</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.01210013021158218</v>
+        <v>0.0175201852979332</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.06773655934600908</v>
+        <v>-0.02167408002106408</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02130455555751476</v>
+        <v>-0.006838583508755547</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.001793578465732804</v>
+        <v>0.004566199903267565</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0189489460556036</v>
+        <v>0.0143784299505163</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01573422606014807</v>
+        <v>-0.01303079900527238</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.02652976876169366</v>
+        <v>0.03608786177721135</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03122674662603808</v>
+        <v>0.01451620123163977</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05435452065645996</v>
+        <v>-0.02596409008679657</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.002243940805344846</v>
+        <v>-0.0006045295495495928</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.003630612048605153</v>
+        <v>0.006580461452499131</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01263327551955684</v>
+        <v>0.02100773101441322</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01550288799492561</v>
+        <v>-0.02841467995977109</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.007901917950790649</v>
+        <v>0.00740538390621226</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.02527822451767003</v>
+        <v>-0.02309673172918025</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.001822188339472897</v>
+        <v>0.005185256366257329</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01280678305434546</v>
+        <v>0.005298628622373069</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.05977862309134707</v>
+        <v>0.02868577530168848</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.003468014993148971</v>
+        <v>0.006613113075834454</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.05631137077314241</v>
+        <v>0.02855073062264313</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02355259324405468</v>
+        <v>-0.0160760096869067</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.05926599435925461</v>
+        <v>-0.04297089655335384</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05133302194221145</v>
+        <v>0.1021949990355997</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05573736436880794</v>
+        <v>-0.05355705323524829</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.06299153439123828</v>
+        <v>-0.02776767663727275</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.0264745577625074</v>
+        <v>0.03719098771633922</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.004724262186342587</v>
+        <v>0.125259737684416</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1760687404689147</v>
+        <v>0.2811196821376118</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1390967818386696</v>
+        <v>-0.1295778515989312</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.05463180239081311</v>
+        <v>-0.09630039213487951</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.1230032920234643</v>
+        <v>-0.0904782723985138</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08771627165537166</v>
+        <v>-0.1346544012848685</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.06835053842028505</v>
+        <v>-0.1800239777920217</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1658875955007812</v>
+        <v>0.1888694684199843</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.08863557859182691</v>
+        <v>0.09230037285530002</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2476033464972573</v>
+        <v>0.2248542844076995</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.07315352596461733</v>
+        <v>-0.06622252531899742</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.0767692210228893</v>
+        <v>-0.1559653530339601</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.03254404143515155</v>
+        <v>-0.07232785394891983</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.03640015006545372</v>
+        <v>-0.01970928404265282</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2421842984343763</v>
+        <v>0.2803491940033476</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04550266189699315</v>
+        <v>0.04768183123180614</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1274218527017902</v>
+        <v>-0.1609983030667275</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.01965159829028118</v>
+        <v>0.02191407506926901</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.0114547082833838</v>
+        <v>-0.008308246413651132</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.0251720320294071</v>
+        <v>-0.02994172127463024</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.0653364108450738</v>
+        <v>0.02483577592010477</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.02903203091770457</v>
+        <v>-0.02923654730299696</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.02052818114284194</v>
+        <v>-0.006904770414483452</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-7.47253350138477e-05</v>
+        <v>-0.01582925168158134</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.01352943559159792</v>
+        <v>0.02177914609554787</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.1038094311673976</v>
+        <v>0.08239323745133631</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0364538592652961</v>
+        <v>0.03783880121442817</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01906063963118176</v>
+        <v>0.006909638166900711</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.010360095043072</v>
+        <v>0.01622405162418183</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03212690617656566</v>
+        <v>0.04444019516264497</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04455714936057165</v>
+        <v>0.04223929695610762</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.01998959725470872</v>
+        <v>0.02933815767748649</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.05873594186996867</v>
+        <v>0.06279787636895984</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.05221054989971796</v>
+        <v>-0.03907300078436637</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.007538818016529114</v>
+        <v>-0.0062369608602868</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.00547842928900466</v>
+        <v>0.04600735238442688</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.04303572314245852</v>
+        <v>0.05198369604340369</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007140786074379735</v>
+        <v>0.00667828717502017</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02096642122832337</v>
+        <v>0.03078064315791429</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04001751471537929</v>
+        <v>-0.04716038950420143</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.06529531052060822</v>
+        <v>-0.07335101860805715</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.0356615826406701</v>
+        <v>0.042784261657832</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07207921812463147</v>
+        <v>0.07304597948528846</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05806278938677223</v>
+        <v>0.05422401088663209</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.004784996479124892</v>
+        <v>0.01751587020841994</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.0599620803489378</v>
+        <v>0.06467807972730077</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01494609055562779</v>
+        <v>0.01514089616265757</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.09442443234718811</v>
+        <v>0.09625464939468542</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.06250806402205122</v>
+        <v>-0.04730540802234739</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.08640429542752748</v>
+        <v>0.07441570716207213</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.007567229160355682</v>
+        <v>0.0006946178069497932</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.1006595200126604</v>
+        <v>-0.09048134309116096</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.06814302736946432</v>
+        <v>-0.08360545981890288</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.02325143225837656</v>
+        <v>0.03207281092873093</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06905159757489199</v>
+        <v>0.07722113442029177</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01380716452785757</v>
+        <v>-0.01706697884138775</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05836427195488014</v>
+        <v>-0.04802084599752143</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01733201196409018</v>
+        <v>-0.01351089049481402</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.001016293129569967</v>
+        <v>0.002744779111282458</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02387653706049442</v>
+        <v>-0.02149985610211025</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.001378532928074327</v>
+        <v>-0.01840936541922589</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.05812453422757824</v>
+        <v>-0.01742044058979286</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.05467201901892604</v>
+        <v>-0.04117347972953866</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1099190687343833</v>
+        <v>-0.1183225938693472</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.03147838407630021</v>
+        <v>0.09221461237794548</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09298856272800948</v>
+        <v>-0.094834271867689</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.006667234534847966</v>
+        <v>0.00618495820186471</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.1104470206041012</v>
+        <v>-0.07765416657181778</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.05225373257333232</v>
+        <v>-0.07273424770775394</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01655619227506722</v>
+        <v>0.01708697562841777</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.01500066888014917</v>
+        <v>0.02060216648435498</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04882434553347259</v>
+        <v>-0.04819975116521069</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.03140039685975848</v>
+        <v>0.0321841861075356</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.1008794120172264</v>
+        <v>-0.09444252756739158</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.04542026408983657</v>
+        <v>-0.04169369265108824</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.0009833714218430156</v>
+        <v>0.04507450272358238</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.02263502850458998</v>
+        <v>0.03655477261274509</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1094973576870232</v>
+        <v>-0.1073725698251554</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.05192535006387211</v>
+        <v>-0.05579586493677013</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.06722414007839661</v>
+        <v>-0.0645388006363472</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.02790051892545686</v>
+        <v>0.03751180523969722</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0987578184209803</v>
+        <v>0.08054028642740074</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06663105359929766</v>
+        <v>-0.03924657753714667</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03556333556743074</v>
+        <v>-0.03426856374104947</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03920760537045709</v>
+        <v>-0.03628212617210269</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06263998029300621</v>
+        <v>0.07228617088866196</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1186812154361607</v>
+        <v>0.1042977836101415</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01243005600851221</v>
+        <v>0.0119185291367303</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.04345464965304702</v>
+        <v>0.04575690050701597</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1336862207289007</v>
+        <v>0.1370150068241349</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.02787280317140495</v>
+        <v>-0.03530859147240806</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.09653442204386853</v>
+        <v>-0.1242936896708412</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01366444592744265</v>
+        <v>0.01680954401012813</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>381115231.3985204</v>
+        <v>382551610.4104449</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>74.9060203358531</v>
+        <v>92.16064491868019</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>2.811152313985203</v>
+        <v>2.825516104104449</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1836221791526038</v>
+        <v>0.1841833333206473</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>3.811152313985203</v>
+        <v>3.825516104104449</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>58.0525672783454</v>
+        <v>59.3069582674477</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.09339103635363893</v>
+        <v>0.08511141317388053</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.109109411908094</v>
+        <v>0.1070908081181191</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.205623397556719</v>
+        <v>1.230756256448905</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.07411239759428764</v>
+        <v>0.07281566415683353</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.774937313594491</v>
+        <v>1.810086931510532</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.09099027550283691</v>
+        <v>0.08833810152962629</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01067342624313763</v>
+        <v>0.01046230817659707</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.03167831782153405</v>
+        <v>-0.02857863778971951</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.00404784256683588</v>
+        <v>-0.003646699310140389</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.131908297086184</v>
+        <v>0.1325055312285986</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.1568571509013789</v>
+        <v>0.1561268001312912</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.736127908690756</v>
+        <v>1.781950655740796</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.1261630290528271</v>
+        <v>0.1273094570413107</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5800230377724636</v>
+        <v>0.5743485444012734</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2823724775417414</v>
+        <v>0.2818548608346225</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1275390721401885</v>
+        <v>0.128196523257704</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1635530973743703</v>
+        <v>0.1612104175499909</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.122603315202624</v>
+        <v>1.148961760129116</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2.002847915172635</v>
+        <v>2.049825544455854</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.588260930270931</v>
+        <v>1.633031541829206</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03747289852792651</v>
+        <v>0.03743815727932416</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.08204510020942411</v>
+        <v>0.07934287520022641</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.617273</v>
+        <v>0.6009879999999987</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.468711720297182</v>
+        <v>0.4541577431142527</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.72088634081373</v>
+        <v>3.718305529889203</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.841415328464579</v>
+        <v>5.840789767368897</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3">
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.3361361996397666</v>
+        <v>0.3408613930897649</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.4212758531655321</v>
+        <v>-0.4190970703452938</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.267113889175</v>
+        <v>3.318336816102741</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.339233399141578</v>
+        <v>3.422082578309841</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.3269230769230769</v>
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.0501361240262727</v>
+        <v>-0.04707963793780635</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1898185678059805</v>
+        <v>0.1933838456872379</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.5041464668196034</v>
+        <v>-0.4704440326131333</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.2166682988148594</v>
+        <v>-0.1868056858314586</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2177443950426748</v>
+        <v>0.2035429550795202</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3377572894601957</v>
+        <v>0.3219906074751215</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.755923065784963</v>
+        <v>1.711320172761708</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.34618103575715</v>
+        <v>2.29657780887086</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6078431372549019</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.0119452320492446</v>
+        <v>0.01214697572554523</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.3248610687752148</v>
+        <v>0.3250849059202852</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.2050538053117738</v>
+        <v>0.2085019990726072</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.6152425998549055</v>
+        <v>0.6194047626498606</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2234512609573682</v>
+        <v>0.2123448684908579</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1899646625058183</v>
+        <v>-0.1973963499429263</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.069475069259256</v>
+        <v>1.976402563166566</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.462442640820527</v>
+        <v>1.316166538608107</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4038461538461539</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1772363787245492</v>
+        <v>0.1831176035992625</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.335805496594534</v>
+        <v>-0.3324664732292447</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.564475368194677</v>
+        <v>1.60998037609542</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.2646269050738799</v>
+        <v>0.3355497954845656</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3653846153846154</v>
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.04562039287422244</v>
+        <v>0.06346519600903641</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1202309129728015</v>
+        <v>-0.1055306419280594</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.5180140103736537</v>
+        <v>0.7287483815067767</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.2725725030610245</v>
+        <v>0.5443552742338722</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.0005142821589768053</v>
+        <v>0.006419167423461028</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1413403953450522</v>
+        <v>0.1478905061820006</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.05175287414465798</v>
+        <v>0.2329894433578812</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.3000062184978513</v>
+        <v>0.5047853226268472</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.0354549999999999</v>
+        <v>-0.03377699999999983</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01524967730899029</v>
+        <v>0.0152521726350956</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02116406979190288</v>
+        <v>0.02106915674441345</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05715220019620371</v>
+        <v>0.05755030809841521</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.00490100555277051</v>
+        <v>0.004498372467128808</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.05246862736053703</v>
+        <v>0.05308274054379614</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01912706867051472</v>
+        <v>0.0194552702810038</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1716589113542339</v>
+        <v>0.1695358301840375</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.211415041482276</v>
+        <v>0.1983595599644596</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.002663743227024673</v>
+        <v>0.004291724859899482</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.04082682271190952</v>
+        <v>0.03556281987413068</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1075984204149223</v>
+        <v>0.112721083410058</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.06805970724108668</v>
+        <v>0.06836906090707484</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.03308394495091194</v>
+        <v>0.03463789151522678</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.0009628278632494158</v>
+        <v>-0.001251004050382365</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003885595490438654</v>
+        <v>0.003886294712067029</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.005487034096375076</v>
+        <v>0.005485204120891263</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.003611939351341853</v>
+        <v>0.003613281959503611</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.02029307914171552</v>
+        <v>0.0204371001874939</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.01460757717888206</v>
+        <v>0.01427820122095391</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-6.385829012456323e-05</v>
+        <v>0.000979668954892654</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.02299924522084984</v>
+        <v>-0.0230152936852468</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.00270841484313622</v>
+        <v>0.002708249097885806</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.0156420944430482</v>
+        <v>0.01519988815849538</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01761976233808982</v>
+        <v>-0.01864969570587682</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01007458764687619</v>
+        <v>0.01030010142592874</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.005523512661565366</v>
+        <v>0.005520372465695589</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.02187758861723932</v>
+        <v>-0.02081197524889677</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.004468428143663328</v>
+        <v>0.006903719314003798</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02475597263875973</v>
+        <v>-0.025446965949672</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01009157976060004</v>
+        <v>-0.009977106052471041</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03372481794908722</v>
+        <v>0.03318601772726248</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02415000042788829</v>
+        <v>-0.02210081032798916</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0009407773129916919</v>
+        <v>0.0009415160167711711</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02907827688539566</v>
+        <v>0.02816225923207272</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.006513009464439223</v>
+        <v>0.01095131308880237</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01460150375939873</v>
+        <v>0.009837981996747125</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.004936843236353461</v>
+        <v>-0.002404593294311308</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.06244143933219548</v>
+        <v>0.06244158257355714</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01928183362299341</v>
+        <v>0.01700140039421716</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.0245390756799162</v>
+        <v>0.02178569301122524</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.003084742961160902</v>
+        <v>0.002930555508616983</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04915349934337598</v>
+        <v>0.04173558853696058</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.002208051114848453</v>
+        <v>-0.003099288841589609</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.001405109372402791</v>
+        <v>-0.001407837734025752</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02370082548806907</v>
+        <v>0.02370134670342749</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03040647883657954</v>
+        <v>-0.02981472921580786</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01187498715199009</v>
+        <v>0.01187254648966274</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.005225881237576835</v>
+        <v>-0.005804582556667603</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.03889365631523356</v>
+        <v>0.03888222644101957</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.02182393687324191</v>
+        <v>-0.02366157236681476</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.006664094864052283</v>
+        <v>-0.006985781549841863</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.01410943139800691</v>
+        <v>-0.01241383930985873</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.001056210942828262</v>
+        <v>0.001055629595391627</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.00294381982729397</v>
+        <v>0.002943909361395214</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.0004220021416712072</v>
+        <v>-0.0004221152574110931</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.01409392609639548</v>
+        <v>0.01477416459592162</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01481488510082463</v>
+        <v>-0.01481469293933357</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.141447246973766</v>
+        <v>0.1414480075568199</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.0205361867143401</v>
+        <v>0.02055058495726336</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.005594681194464601</v>
+        <v>-0.008440670190401844</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.0034442894325587</v>
+        <v>-0.005291453095438325</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.005432154558806523</v>
+        <v>0.006244549225370211</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.008017077651242044</v>
+        <v>-0.01216849157633737</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01530804659719287</v>
+        <v>0.01530828425665964</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01477514244234235</v>
+        <v>0.01477607205824882</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.006579561646727461</v>
+        <v>0.006408285908140687</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02116809688444088</v>
+        <v>-0.02201307617587867</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0625239275562004</v>
+        <v>0.06253002700408095</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03029147522696474</v>
+        <v>0.03028204632540077</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.03929369890649292</v>
+        <v>-0.03928710496994747</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>8.42313384323834e-05</v>
+        <v>2.60846446726859e-05</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.005795476766350394</v>
+        <v>0.005795990627162073</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01683152634660656</v>
+        <v>0.01683160580847343</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.0797746597200899</v>
+        <v>0.07977637242140201</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.07480788758375079</v>
+        <v>0.07467570123541956</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.001745949496183008</v>
+        <v>-0.001851852373665142</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.03196614626383365</v>
+        <v>-0.03204973481970941</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01369925785724924</v>
+        <v>-0.0138580024306042</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02624184676668451</v>
+        <v>0.02862186622091611</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02438446916440706</v>
+        <v>0.02766932745722572</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.0175201852979332</v>
+        <v>0.01728462899039074</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02167408002106408</v>
+        <v>-0.01107161774825127</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.006838583508755547</v>
+        <v>-0.006247293715412661</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.004566199903267565</v>
+        <v>0.006465672244931886</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0143784299505163</v>
+        <v>0.01690951349905423</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01303079900527238</v>
+        <v>-0.01084284343623088</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.03608786177721135</v>
+        <v>0.03469071726085482</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01451620123163977</v>
+        <v>0.006425969111641505</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02596409008679657</v>
+        <v>-0.01309877557174599</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0006045295495495928</v>
+        <v>0.003715368305081235</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.006580461452499131</v>
+        <v>0.001015914293385878</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02100773101441322</v>
+        <v>0.01759139905846929</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.02841467995977109</v>
+        <v>-0.02553644771693342</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.00740538390621226</v>
+        <v>0.006589545656657814</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.02309673172918025</v>
+        <v>-0.01974865205633347</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.005185256366257329</v>
+        <v>0.005490002941316963</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.005298628622373069</v>
+        <v>0.005304648574515181</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.02868577530168848</v>
+        <v>0.02870600349070385</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.006613113075834454</v>
+        <v>0.006599507687935713</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.02855073062264313</v>
+        <v>0.03031393171923025</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.0160760096869067</v>
+        <v>-0.01607868838203308</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.04297089655335384</v>
+        <v>-0.0430601298395713</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1021949990355997</v>
+        <v>0.1026377607325648</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05355705323524829</v>
+        <v>-0.05390806175262275</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02776767663727275</v>
+        <v>-0.02719520374803086</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.03719098771633922</v>
+        <v>0.03752115136655587</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.125259737684416</v>
+        <v>0.1232011725138933</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2811196821376118</v>
+        <v>0.2675074405737605</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1295778515989312</v>
+        <v>-0.1279538182895021</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.09630039213487951</v>
+        <v>-0.100965774824759</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.0904782723985138</v>
+        <v>-0.08621221020916836</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.1346544012848685</v>
+        <v>-0.1343712323125572</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.1800239777920217</v>
+        <v>-0.1787786234378642</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1888694684199843</v>
+        <v>0.188502752684631</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09230037285530002</v>
+        <v>0.09230109268187769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2248542844076995</v>
+        <v>0.2248522381366413</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06622252531899742</v>
+        <v>-0.06622125527053357</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.1559653530339601</v>
+        <v>-0.1558389453230613</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.07232785394891983</v>
+        <v>-0.07264648513017136</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.01970928404265282</v>
+        <v>-0.01868214510350696</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2803491940033476</v>
+        <v>0.2803296086068257</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04768183123180614</v>
+        <v>0.04768165875825914</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1609983030667275</v>
+        <v>-0.1613777173825077</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.02191407506926901</v>
+        <v>0.02079824350537418</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.008308246413651132</v>
+        <v>-0.008075424107204854</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.02994172127463024</v>
+        <v>-0.02994484168839007</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02483577592010477</v>
+        <v>0.02594314185741808</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.02923654730299696</v>
+        <v>-0.0269788956479996</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.006904770414483452</v>
+        <v>-0.007600031200151625</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01582925168158134</v>
+        <v>-0.01571413156324097</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02177914609554787</v>
+        <v>0.02119452809234024</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08239323745133631</v>
+        <v>0.08463998242395188</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03783880121442817</v>
+        <v>0.03783957488653122</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.006909638166900711</v>
+        <v>0.006004972327275038</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01622405162418183</v>
+        <v>0.02068819338565087</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04444019516264497</v>
+        <v>0.03943593685845448</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04223929695610762</v>
+        <v>0.04489428697330222</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.02933815767748649</v>
+        <v>0.02933830502876789</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.06279787636895984</v>
+        <v>0.06044366675000235</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03907300078436637</v>
+        <v>-0.04167124523249366</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.0062369608602868</v>
+        <v>-0.006480583876510293</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04600735238442688</v>
+        <v>0.03873344057542139</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.05198369604340369</v>
+        <v>0.05100443527436904</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.00667828717502017</v>
+        <v>0.006675649975491194</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03078064315791429</v>
+        <v>0.03078139212517939</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04716038950420143</v>
+        <v>-0.04655482572873004</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07335101860805715</v>
+        <v>-0.07335318757794351</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.042784261657832</v>
+        <v>0.04219389827542375</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07304597948528846</v>
+        <v>0.07303382448981433</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05422401088663209</v>
+        <v>0.0521802708386927</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01751587020841994</v>
+        <v>0.01718597517168075</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.06467807972730077</v>
+        <v>0.06647578053775982</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01514089616265757</v>
+        <v>0.01514030853196791</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.09625464939468542</v>
+        <v>0.09625469113267915</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.04730540802234739</v>
+        <v>-0.04730553276126259</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.07441570716207213</v>
+        <v>0.0751586218723852</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.0006946178069497932</v>
+        <v>0.000694819526162016</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.09048134309116096</v>
+        <v>-0.09048066914676511</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.08360545981890288</v>
+        <v>-0.08359480195154123</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03207281092873093</v>
+        <v>0.02906400256231678</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.07722113442029177</v>
+        <v>0.07526559961666424</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01706697884138775</v>
+        <v>-0.01627705674084234</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.04802084599752143</v>
+        <v>-0.0520807110994872</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01351089049481402</v>
+        <v>-0.01351065349650193</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.002744779111282458</v>
+        <v>0.002745723690523505</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02149985610211025</v>
+        <v>-0.02167021639000311</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01840936541922589</v>
+        <v>-0.01924804871135766</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.01742044058979286</v>
+        <v>-0.0174152318937203</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.04117347972953866</v>
+        <v>-0.04118253013354611</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1183225938693472</v>
+        <v>-0.1183171927375859</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.09221461237794548</v>
+        <v>0.09220074596047145</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.094834271867689</v>
+        <v>-0.09483379017574078</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.00618495820186471</v>
+        <v>0.006185059900015943</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.07765416657181778</v>
+        <v>-0.07765270041179406</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.07273424770775394</v>
+        <v>-0.07284716738455466</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.01708697562841777</v>
+        <v>0.01697928660288484</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02060216648435498</v>
+        <v>0.02051787155868401</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04819975116521069</v>
+        <v>-0.04834003516299468</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.0321841861075356</v>
+        <v>0.03459098595257593</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.09444252756739158</v>
+        <v>-0.09157916997453397</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.04169369265108824</v>
+        <v>-0.04191334295270199</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.04507450272358238</v>
+        <v>0.05595892095234456</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.03655477261274509</v>
+        <v>0.0371463462505186</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1073725698251554</v>
+        <v>-0.1056471485346107</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.05579586493677013</v>
+        <v>-0.05339720703065098</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.0645388006363472</v>
+        <v>-0.06243418957745206</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.03751180523969722</v>
+        <v>0.03614310357720996</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08054028642740074</v>
+        <v>0.07181968611991563</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.03924657753714667</v>
+        <v>-0.02652784424316534</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03426856374104947</v>
+        <v>-0.03000843352511184</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03628212617210269</v>
+        <v>-0.04162156713360998</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.07228617088866196</v>
+        <v>0.06862462230906519</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1042977836101415</v>
+        <v>0.1074786185855552</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.0119185291367303</v>
+        <v>0.01108271312995424</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.04575690050701597</v>
+        <v>0.04928498625711408</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1370150068241349</v>
+        <v>0.1373464734564349</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.03530859147240806</v>
+        <v>-0.03530266709680152</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.1242936896708412</v>
+        <v>-0.1242758959300284</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01680954401012813</v>
+        <v>0.01679593862222939</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>382551610.4104449</v>
+        <v>407265874.0308076</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>92.16064491868019</v>
+        <v>68.06270761787891</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>2.825516104104449</v>
+        <v>3.072658740308076</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1841833333206473</v>
+        <v>0.1935610301780881</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>3.825516104104449</v>
+        <v>4.072658740308076</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>59.3069582674477</v>
+        <v>64.45519843681234</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.08511141317388053</v>
+        <v>0.1960481394861607</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1070908081181191</v>
+        <v>0.1096142070701055</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.230756256448905</v>
+        <v>1.276904509392196</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.07281566415683353</v>
+        <v>0.07416715482912058</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.810086931510532</v>
+        <v>1.887181402923546</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.08833810152962629</v>
+        <v>0.08502882483912676</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01046230817659707</v>
+        <v>0.01069154690048093</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.02857863778971951</v>
+        <v>0.03781564867447527</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.003646699310140389</v>
+        <v>0.004687842698780642</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1325055312285986</v>
+        <v>0.1416674472416803</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.1561268001312912</v>
+        <v>0.1604947551698571</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.781950655740796</v>
+        <v>1.835110556836192</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.1273094570413107</v>
+        <v>0.1565877246313411</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5743485444012734</v>
+        <v>0.5719747314977814</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2818548608346225</v>
+        <v>0.2812926913826379</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.128196523257704</v>
+        <v>0.1369181277686711</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1612104175499909</v>
+        <v>0.1699825752832282</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.148961760129116</v>
+        <v>1.176973329076382</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2.049825544455854</v>
+        <v>2.117128625807539</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.633031541829206</v>
+        <v>1.657933323540818</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03743815727932416</v>
+        <v>0.03728837417690731</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.07934287520022641</v>
+        <v>0.07771177981065901</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6009879999999987</v>
+        <v>0.6276450000000009</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.4541577431142527</v>
+        <v>0.4788796123818581</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.718305529889203</v>
+        <v>3.724305616142844</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.840789767368897</v>
+        <v>5.903813575532951</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.3408613930897649</v>
+        <v>0.3871009956102223</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.4190970703452938</v>
+        <v>-0.398411057124678</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.318336816102741</v>
+        <v>3.544162282246596</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.422082578309841</v>
+        <v>3.820562069357014</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="4">
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.04707963793780635</v>
+        <v>-0.04214229652373119</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1933838456872379</v>
+        <v>0.198713708020976</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.4704440326131333</v>
+        <v>-0.4263868888049857</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.1868056858314586</v>
+        <v>-0.1529856413645574</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.54</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2035429550795202</v>
+        <v>0.1927587774321478</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3219906074751215</v>
+        <v>0.310001946791624</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.711320172761708</v>
+        <v>1.65575730388232</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.29657780887086</v>
+        <v>2.22198326119299</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6078431372549019</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.01214697572554523</v>
+        <v>0.01174723270693859</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.3250849059202852</v>
+        <v>0.3246520105266235</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.2085019990726072</v>
+        <v>0.2002132293189044</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.6194047626498606</v>
+        <v>0.6031571799762985</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2123448684908579</v>
+        <v>0.2234295902582533</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1973963499429263</v>
+        <v>-0.1897755135974718</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.976402563166566</v>
+        <v>2.050195778730017</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.316166538608107</v>
+        <v>1.431387506128204</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4038461538461539</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1831176035992625</v>
+        <v>0.1952746879311455</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3324664732292447</v>
+        <v>-0.324565796435236</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.60998037609542</v>
+        <v>1.622545312302345</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.3355497954845656</v>
+        <v>0.3396839574352853</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3653846153846154</v>
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.06346519600903641</v>
+        <v>0.05848786212957707</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1055306419280594</v>
+        <v>-0.1091252325782074</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.7287483815067767</v>
+        <v>0.6427828967663126</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.5443552742338722</v>
+        <v>0.4308798407533738</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.006419167423461028</v>
+        <v>0.00821243302054587</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1478905061820006</v>
+        <v>0.1502527765511123</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.2329894433578812</v>
+        <v>0.2951208821379292</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.5047853226268472</v>
+        <v>0.6164400441085094</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.03377699999999983</v>
+        <v>-0.03344100000000005</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.0152521726350956</v>
+        <v>0.01555828459514652</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02106915674441345</v>
+        <v>0.02109929023825474</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05755030809841521</v>
+        <v>0.05779361234271296</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.004498372467128808</v>
+        <v>0.004860243247959417</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.05308274054379614</v>
+        <v>0.05279297307647601</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.0194552702810038</v>
+        <v>0.02239235115229321</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1695358301840375</v>
+        <v>0.1730614109975241</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1983595599644596</v>
+        <v>0.2099587647105614</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.004291724859899482</v>
+        <v>0.001940226523596822</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.03556281987413068</v>
+        <v>0.03522927048821956</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.112721083410058</v>
+        <v>0.1175882790218312</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.06836906090707484</v>
+        <v>0.07762349915782263</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.03463789151522678</v>
+        <v>0.05557408106895778</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.001251004050382365</v>
+        <v>-0.00251650920429225</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003886294712067029</v>
+        <v>0.003745750472014198</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.005485204120891263</v>
+        <v>0.006363418487606243</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.003613281959503611</v>
+        <v>0.003294768739603882</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.0204371001874939</v>
+        <v>0.02358866247181535</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.01427820122095391</v>
+        <v>0.01331578428357361</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.000979668954892654</v>
+        <v>0.003249651727807557</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0230152936852468</v>
+        <v>-0.01897809637030146</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.002708249097885806</v>
+        <v>0.002853452203094964</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01519988815849538</v>
+        <v>0.01189547362416676</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01864969570587682</v>
+        <v>-0.01712669007827439</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01030010142592874</v>
+        <v>0.01007555534833293</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.005520372465695589</v>
+        <v>0.009042887162891589</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.02081197524889677</v>
+        <v>-0.025606861066512</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.006903719314003798</v>
+        <v>0.007137094384859655</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.025446965949672</v>
+        <v>-0.02628953976107329</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.009977106052471041</v>
+        <v>-0.00618975021613255</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03318601772726248</v>
+        <v>0.03552662286853603</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02210081032798916</v>
+        <v>-0.02327849098325996</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0009415160167711711</v>
+        <v>0.001080199744469823</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02816225923207272</v>
+        <v>0.01607603865122598</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01095131308880237</v>
+        <v>0.007376453719639908</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.009837981996747125</v>
+        <v>0.01445444075800295</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002404593294311308</v>
+        <v>-0.002827899809516254</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.06244158257355714</v>
+        <v>0.06480412883470388</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01700140039421716</v>
+        <v>0.01825531889934306</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02178569301122524</v>
+        <v>0.02104846079247435</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.002930555508616983</v>
+        <v>0.003121378338778902</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04173558853696058</v>
+        <v>0.04265585042151709</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.003099288841589609</v>
+        <v>-0.0047874670538961</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.001407837734025752</v>
+        <v>-0.001426579913058501</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02370134670342749</v>
+        <v>0.0233033368793556</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.02981472921580786</v>
+        <v>-0.03154582737424338</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01187254648966274</v>
+        <v>0.01184269669074989</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.005804582556667603</v>
+        <v>-0.005432370448151924</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.03888222644101957</v>
+        <v>0.04027240628793716</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.02366157236681476</v>
+        <v>-0.02497644876967475</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.006985781549841863</v>
+        <v>-0.007470368789096571</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.01241383930985873</v>
+        <v>-0.01198609904430914</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.001055629595391627</v>
+        <v>0.001055610466059287</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.002943909361395214</v>
+        <v>0.002943691170097518</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.0004221152574110931</v>
+        <v>0.0001934642558247823</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.01477416459592162</v>
+        <v>0.01567263306073241</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01481469293933357</v>
+        <v>-0.01550474630007814</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1414480075568199</v>
+        <v>0.1454858102780028</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.02055058495726336</v>
+        <v>0.02304960442317538</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.008440670190401844</v>
+        <v>-0.005988946753108348</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.005291453095438325</v>
+        <v>-0.004659107311831723</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.006244549225370211</v>
+        <v>0.006267070036496403</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01216849157633737</v>
+        <v>-0.01030100017580882</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01530828425665964</v>
+        <v>0.01531232566879948</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01477607205824882</v>
+        <v>0.01476334623896403</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.006408285908140687</v>
+        <v>0.005654011282503868</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02201307617587867</v>
+        <v>-0.0216931538811137</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06253002700408095</v>
+        <v>0.06172338238575503</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03028204632540077</v>
+        <v>0.03334152884375952</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.03928710496994747</v>
+        <v>-0.04074673759978731</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>2.60846446726859e-05</v>
+        <v>0.005687204090970344</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.005795990627162073</v>
+        <v>0.006671121831154814</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01683160580847343</v>
+        <v>0.01686331325045543</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.07977637242140201</v>
+        <v>0.08321079209978111</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.07467570123541956</v>
+        <v>0.08770498654792402</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.001851852373665142</v>
+        <v>-0.002170252972147457</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.03204973481970941</v>
+        <v>-0.03157457513486805</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.0138580024306042</v>
+        <v>-0.01314292230463365</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02862186622091611</v>
+        <v>0.02859756723857942</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02766932745722572</v>
+        <v>0.01351681887340583</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.01728462899039074</v>
+        <v>0.01985206008260954</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.01107161774825127</v>
+        <v>-0.01445899836589559</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.006247293715412661</v>
+        <v>-0.006109863351899558</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.006465672244931886</v>
+        <v>0.0002767337236631029</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.01690951349905423</v>
+        <v>0.01820377911062687</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01084284343623088</v>
+        <v>-0.01356777914506102</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.03469071726085482</v>
+        <v>0.02691716528015697</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.006425969111641505</v>
+        <v>0.002554397583454104</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.01309877557174599</v>
+        <v>0.002989148076314452</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.003715368305081235</v>
+        <v>-0.001421726293794889</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.001015914293385878</v>
+        <v>0.004513311801100706</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01759139905846929</v>
+        <v>0.01820705662079081</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.02553644771693342</v>
+        <v>-0.0249071354392949</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.006589545656657814</v>
+        <v>0.007080197812928235</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.01974865205633347</v>
+        <v>-0.02182284236433707</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.005490002941316963</v>
+        <v>0.004421169554622573</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.005304648574515181</v>
+        <v>0.006608849602935729</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.02870600349070385</v>
+        <v>0.03467200869107101</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.006599507687935713</v>
+        <v>0.003333227399276772</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.03031393171923025</v>
+        <v>0.03070839837655681</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01607868838203308</v>
+        <v>-0.01577805573148161</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.0430601298395713</v>
+        <v>-0.04302976510037726</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1026377607325648</v>
+        <v>0.1028639701829108</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05390806175262275</v>
+        <v>-0.05356845753707173</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02719520374803086</v>
+        <v>-0.02745872847011976</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.03752115136655587</v>
+        <v>0.04055608702979119</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1232011725138933</v>
+        <v>0.1266470761121949</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2675074405737605</v>
+        <v>0.2800677321235561</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1279538182895021</v>
+        <v>-0.1301723748612579</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.100965774824759</v>
+        <v>-0.10128608481583</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.08621221020916836</v>
+        <v>-0.08213796392617856</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.1343712323125572</v>
+        <v>-0.1263705133646525</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.1787786234378642</v>
+        <v>-0.1616240522465872</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.188502752684631</v>
+        <v>0.1878365118565506</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09230109268187769</v>
+        <v>0.09214826549997612</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2248522381366413</v>
+        <v>0.2263964730844139</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06622125527053357</v>
+        <v>-0.06651689904700142</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.1558389453230613</v>
+        <v>-0.1530984199813749</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.07264648513017136</v>
+        <v>-0.07431529139369342</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.01868214510350696</v>
+        <v>-0.01682681624983262</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2803296086068257</v>
+        <v>0.2851941890971901</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04768165875825914</v>
+        <v>0.0478353638997524</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1613777173825077</v>
+        <v>-0.1640716446097426</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.02079824350537418</v>
+        <v>0.02244868191205773</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.008075424107204854</v>
+        <v>-0.008307214393370121</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.02994484168839007</v>
+        <v>-0.02633975842320313</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02594314185741808</v>
+        <v>0.02096649884163604</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0269788956479996</v>
+        <v>-0.02675768710374193</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007600031200151625</v>
+        <v>-0.008447797020416425</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01571413156324097</v>
+        <v>-0.01203802689195721</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02119452809234024</v>
+        <v>0.02356532581053639</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08463998242395188</v>
+        <v>0.08256666120722289</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03783957488653122</v>
+        <v>0.03798459814719202</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.006004972327275038</v>
+        <v>-0.006038823494974199</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02068819338565087</v>
+        <v>0.0170440947330377</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03943593685845448</v>
+        <v>0.04428878400625003</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04489428697330222</v>
+        <v>0.04444811983610819</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.02933830502876789</v>
+        <v>0.03163555394563722</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.06044366675000235</v>
+        <v>0.06165510734846369</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.04167124523249366</v>
+        <v>-0.0423018955092862</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.006480583876510293</v>
+        <v>-0.006293603570622475</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.03873344057542139</v>
+        <v>0.03964233085203661</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.05100443527436904</v>
+        <v>0.04930661528153912</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.006675649975491194</v>
+        <v>0.006656979301035149</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03078139212517939</v>
+        <v>0.03037721183883657</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04655482572873004</v>
+        <v>-0.04821460513540099</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07335318757794351</v>
+        <v>-0.07337593559845168</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.04219389827542375</v>
+        <v>0.04256986754636616</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07303382448981433</v>
+        <v>0.07450570652898381</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.0521802708386927</v>
+        <v>0.05076466399548174</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01718597517168075</v>
+        <v>0.01669785638326871</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.06647578053775982</v>
+        <v>0.06692837230802007</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01514030853196791</v>
+        <v>0.01514029032132069</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.09625469113267915</v>
+        <v>0.09625448531135294</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.04730553276126259</v>
+        <v>-0.04669459199184522</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.0751586218723852</v>
+        <v>0.07608583639196587</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.000694819526162016</v>
+        <v>3.29690362210755e-06</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.09048066914676511</v>
+        <v>-0.08716322337845295</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.08359480195154123</v>
+        <v>-0.08119789807321276</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.02906400256231678</v>
+        <v>0.03169266596460463</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.07526559961666424</v>
+        <v>0.07590106370543936</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01627705674084234</v>
+        <v>-0.01624927318623126</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.0520807110994872</v>
+        <v>-0.05036097696215414</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01351065349650193</v>
+        <v>-0.01349828760273986</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.002745723690523505</v>
+        <v>0.002762705463722925</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02167021639000311</v>
+        <v>-0.02241444882057098</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01924804871135766</v>
+        <v>-0.01890055462107332</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.0174152318937203</v>
+        <v>-0.01811934522173186</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.04118253013354611</v>
+        <v>-0.03810284773708372</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1183171927375859</v>
+        <v>-0.1192014556676172</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.09220074596047145</v>
+        <v>0.09838740008524427</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09483379017574078</v>
+        <v>-0.09404465407546014</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.006185059900015943</v>
+        <v>0.006224529459804895</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.07765270041179406</v>
+        <v>-0.07464855230831813</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.07284716738455466</v>
+        <v>-0.06129423020418456</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.01697928660288484</v>
+        <v>0.01667409589116464</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02051787155868401</v>
+        <v>0.02103051886617524</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04834003516299468</v>
+        <v>-0.04764158550395259</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.03459098595257593</v>
+        <v>0.03464809938681213</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.09157916997453397</v>
+        <v>-0.1038704012263032</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.04191334295270199</v>
+        <v>-0.03840060358020592</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.05595892095234456</v>
+        <v>0.05259179722958018</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.0371463462505186</v>
+        <v>0.03715641867589436</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1056471485346107</v>
+        <v>-0.1114105583703662</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.05339720703065098</v>
+        <v>-0.05212618131514712</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.06243418957745206</v>
+        <v>-0.0648986405260854</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.03614310357720996</v>
+        <v>0.0280441312907922</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.07181968611991563</v>
+        <v>0.06784239920768198</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02652784424316534</v>
+        <v>-0.01069697654034807</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03000843352511184</v>
+        <v>-0.03512026221247844</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.04162156713360998</v>
+        <v>-0.03827959224742328</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06862462230906519</v>
+        <v>0.06914743248879573</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1074786185855552</v>
+        <v>0.1081958544475039</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01108271312995424</v>
+        <v>0.01158324172667635</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.04928498625711408</v>
+        <v>0.0471007524369258</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1373464734564349</v>
+        <v>0.1361373555390148</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.03530266709680152</v>
+        <v>-0.03401898253570357</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.1242758959300284</v>
+        <v>-0.1190509774581987</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01679593862222939</v>
+        <v>0.01352965833357045</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>407265874.0308076</v>
+        <v>394934472.9043097</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>68.06270761787891</v>
+        <v>2544.288609627634</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>3.072658740308076</v>
+        <v>2.949344729043097</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1935610301780881</v>
+        <v>0.1889460695937248</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>4.072658740308076</v>
+        <v>3.949344729043097</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>64.45519843681234</v>
+        <v>103.8539780582715</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.1960481394861607</v>
+        <v>0.2978755199090111</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1096142070701055</v>
+        <v>0.1131122351356631</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.276904509392196</v>
+        <v>1.206530308086746</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.07416715482912058</v>
+        <v>0.07578015085153009</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.887181402923546</v>
+        <v>1.800911430936489</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.08502882483912676</v>
+        <v>0.08814090863934283</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01069154690048093</v>
+        <v>0.01106541678030432</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.03781564867447527</v>
+        <v>0.008679032141721471</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.004687842698780642</v>
+        <v>0.00108943281854823</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1416674472416803</v>
+        <v>0.1369029705216318</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.1604947551698571</v>
+        <v>0.1635213433739894</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.835110556836192</v>
+        <v>1.723771018538145</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.1565877246313411</v>
+        <v>0.1440036902887612</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5719747314977814</v>
+        <v>0.555822836940011</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2812926913826379</v>
+        <v>0.2816139435250485</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1369181277686711</v>
+        <v>0.131947990285281</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1699825752832282</v>
+        <v>0.1800197479495942</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.176973329076382</v>
+        <v>1.10127453178458</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2.117128625807539</v>
+        <v>2.005106683159905</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.657933323540818</v>
+        <v>1.544982402691261</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03728837417690731</v>
+        <v>0.03713565605273914</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.07771177981065901</v>
+        <v>0.08083653882173759</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6276450000000009</v>
+        <v>0.7083760000000011</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.4788796123818581</v>
+        <v>0.5495486959004972</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.724305616142844</v>
+        <v>3.901102084716648</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.903813575532951</v>
+        <v>6.21056332903726</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3">
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.3871009956102223</v>
+        <v>0.3514741485480943</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.398411057124678</v>
+        <v>-0.4149266858604883</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.544162282246596</v>
+        <v>3.268251787779852</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.820562069357014</v>
+        <v>3.354838342040916</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.3461538461538461</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.04214229652373119</v>
+        <v>-0.04999034141160835</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.198713708020976</v>
+        <v>0.1911817176424768</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.4263868888049857</v>
+        <v>-0.4733735897559051</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.1529856413645574</v>
+        <v>-0.177928501347508</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.54</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1927587774321478</v>
+        <v>0.1694505397311122</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.310001946791624</v>
+        <v>0.2837584448193456</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.65575730388232</v>
+        <v>1.507897508439806</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.22198326119299</v>
+        <v>1.995552663038498</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6078431372549019</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.01174723270693859</v>
+        <v>-0.01565096774721723</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.3246520105266235</v>
+        <v>0.2903141473066612</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.2002132293189044</v>
+        <v>-0.1631011567353444</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.6031571799762985</v>
+        <v>0.2410035052571005</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2234295902582533</v>
+        <v>0.2462396061680784</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1897755135974718</v>
+        <v>-0.1740219643931363</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.050195778730017</v>
+        <v>2.131991338521219</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.431387506128204</v>
+        <v>1.579079461132574</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4038461538461539</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1952746879311455</v>
+        <v>0.1972171251295796</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.324565796435236</v>
+        <v>-0.3234306017478971</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.622545312302345</v>
+        <v>1.63123377841736</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.3396839574352853</v>
+        <v>0.3568258931481662</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3653846153846154</v>
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.05848786212957707</v>
+        <v>0.02905645812916075</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1091252325782074</v>
+        <v>-0.1320931959969838</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.6427828967663126</v>
+        <v>0.343088354936815</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.4308798407533738</v>
+        <v>0.01101298820271889</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.00821243302054587</v>
+        <v>0.01873493408723613</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1502527765511123</v>
+        <v>0.1625904776250709</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.2951208821379292</v>
+        <v>0.6262647681514398</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.6164400441085094</v>
+        <v>1.017440564696673</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.03344100000000005</v>
+        <v>-0.03230000000000011</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01555828459514652</v>
+        <v>0.01518032448072848</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02109929023825474</v>
+        <v>0.03352232819959533</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05779361234271296</v>
+        <v>0.05627377324631988</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.004860243247959417</v>
+        <v>0.004816971853442986</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.05279297307647601</v>
+        <v>0.04758895496017179</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02239235115229321</v>
+        <v>0.01497909039451439</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1730614109975241</v>
+        <v>0.1908289019974398</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2099587647105614</v>
+        <v>0.2520418154421633</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.001940226523596822</v>
+        <v>-0.003470547467302465</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.03522927048821956</v>
+        <v>0.02409884125614492</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1175882790218312</v>
+        <v>0.1162713065982057</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.07762349915782263</v>
+        <v>0.08570437624281269</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.05557408106895778</v>
+        <v>0.05364254489024312</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.00251650920429225</v>
+        <v>-0.003432101127728737</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003745750472014198</v>
+        <v>0.003736886417763152</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.006363418487606243</v>
+        <v>0.004970850698006846</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.003294768739603882</v>
+        <v>0.004167014811534697</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.02358866247181535</v>
+        <v>0.01490981271961656</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.01331578428357361</v>
+        <v>0.008209963930699393</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.003249651727807557</v>
+        <v>0.004006326281857708</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.01897809637030146</v>
+        <v>-0.02143513629870752</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.002853452203094964</v>
+        <v>0.002417967048725878</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01189547362416676</v>
+        <v>0.01258345663345839</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01712669007827439</v>
+        <v>-0.01686871919829036</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01007555534833293</v>
+        <v>0.009592777119621809</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.009042887162891589</v>
+        <v>0.005944010322281423</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.025606861066512</v>
+        <v>-0.02119120208964098</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.007137094384859655</v>
+        <v>0.001912773597567252</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02628953976107329</v>
+        <v>-0.02019964062016411</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.00618975021613255</v>
+        <v>-0.007073070517995217</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03552662286853603</v>
+        <v>0.049717707567561</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02327849098325996</v>
+        <v>-0.04352859811584375</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.001080199744469823</v>
+        <v>0.0009925198560962745</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01607603865122598</v>
+        <v>0.01529114804990384</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.007376453719639908</v>
+        <v>0.03429009262245719</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01445444075800295</v>
+        <v>0.005916043364077694</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002827899809516254</v>
+        <v>-0.005618231873872226</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.06480412883470388</v>
+        <v>0.03542096214343471</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01825531889934306</v>
+        <v>0.03462592335586256</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02104846079247435</v>
+        <v>0.02460316946331553</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.003121378338778902</v>
+        <v>-0.001116790974021842</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04265585042151709</v>
+        <v>0.02682464496211834</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.0047874670538961</v>
+        <v>-0.01376195905036282</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.001426579913058501</v>
+        <v>0.001738635311870684</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.0233033368793556</v>
+        <v>0.02441404384500889</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03154582737424338</v>
+        <v>-0.04053613324174554</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01184269669074989</v>
+        <v>0.01223153529209231</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.005432370448151924</v>
+        <v>-0.006026584368654886</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.04027240628793716</v>
+        <v>0.04209534952847171</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.02497644876967475</v>
+        <v>-0.02641268323278811</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.007470368789096571</v>
+        <v>-0.004381399335641301</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.01198609904430914</v>
+        <v>-0.02135204233957211</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.001055610466059287</v>
+        <v>0.001031655513992868</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.002943691170097518</v>
+        <v>-0.01059832914177994</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.0001934642558247823</v>
+        <v>0.0002186339765248846</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.01567263306073241</v>
+        <v>0.01641972734291852</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01550474630007814</v>
+        <v>-0.01467562531312772</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1454858102780028</v>
+        <v>0.1540444072865252</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.02304960442317538</v>
+        <v>0.02177857870297517</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.005988946753108348</v>
+        <v>-0.006327265017368577</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.004659107311831723</v>
+        <v>-0.004955934480261326</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.006267070036496403</v>
+        <v>0.006309288557988513</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01030100017580882</v>
+        <v>-0.003729087050287183</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01531232566879948</v>
+        <v>0.01535972435231714</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01476334623896403</v>
+        <v>0.01481850506328541</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.005654011282503868</v>
+        <v>0.005673987028789407</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.0216931538811137</v>
+        <v>-0.02132979634204113</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06172338238575503</v>
+        <v>0.06695596477290278</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03334152884375952</v>
+        <v>0.03599419577623864</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04074673759978731</v>
+        <v>-0.04203855535814194</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.005687204090970344</v>
+        <v>0.001896959005640353</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.006671121831154814</v>
+        <v>0.006618475928761525</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01686331325045543</v>
+        <v>0.01210690500948552</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.08321079209978111</v>
+        <v>0.08254403862901105</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.08770498654792402</v>
+        <v>0.08841513421031388</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.002170252972147457</v>
+        <v>-0.003306549545392889</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.03157457513486805</v>
+        <v>-0.03207113205430268</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01314292230463365</v>
+        <v>-0.01261438487521349</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02859756723857942</v>
+        <v>0.02333065749577412</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01351681887340583</v>
+        <v>0.02897601474502887</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.01985206008260954</v>
+        <v>0.01232622611919765</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.01445899836589559</v>
+        <v>-0.0120001950867501</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.006109863351899558</v>
+        <v>-0.007279872757484651</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0002767337236631029</v>
+        <v>0.0124740241460144</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.01820377911062687</v>
+        <v>0.0302079240548041</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01356777914506102</v>
+        <v>-0.01472003206927319</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.02691716528015697</v>
+        <v>0.008212276246103656</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.002554397583454104</v>
+        <v>-7.843760546577538e-05</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.002989148076314452</v>
+        <v>-0.01294580052371508</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.001421726293794889</v>
+        <v>0.001177972078977074</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.004513311801100706</v>
+        <v>0.01440338781593642</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01820705662079081</v>
+        <v>-0.002103022354587147</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.0249071354392949</v>
+        <v>-0.02815760250624544</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.007080197812928235</v>
+        <v>0.006554647097481991</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.02182284236433707</v>
+        <v>-0.01909261807828633</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.004421169554622573</v>
+        <v>0.005594853766834218</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.006608849602935729</v>
+        <v>0.006819653970062456</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.03467200869107101</v>
+        <v>0.04627965447116167</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.003333227399276772</v>
+        <v>0.00225328679399861</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.03070839837655681</v>
+        <v>0.03189196186878385</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01577805573148161</v>
+        <v>-0.01614341248713003</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.04302976510037726</v>
+        <v>-0.03165034357332919</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1028639701829108</v>
+        <v>0.101224019012792</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05356845753707173</v>
+        <v>-0.05363781938835044</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02745872847011976</v>
+        <v>-0.03255680627434931</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.04055608702979119</v>
+        <v>0.03297141167875606</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1266470761121949</v>
+        <v>0.1437250345535783</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2800677321235561</v>
+        <v>0.3232397667897586</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1301723748612579</v>
+        <v>-0.1347290131101723</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.10128608481583</v>
+        <v>-0.1111713719731859</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.08213796392617856</v>
+        <v>-0.08344910719705079</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.1263705133646525</v>
+        <v>-0.1196833626680921</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.1616240522465872</v>
+        <v>-0.1628628981857636</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1878365118565506</v>
+        <v>0.1871857635567209</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09214826549997612</v>
+        <v>0.09213725494675873</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2263964730844139</v>
+        <v>0.2238745453894238</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06651689904700142</v>
+        <v>-0.06570711714899291</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.1530984199813749</v>
+        <v>-0.1612088250449768</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.07431529139369342</v>
+        <v>-0.07951775617294288</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.01682681624983262</v>
+        <v>-0.01607291353946749</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2851941890971901</v>
+        <v>0.2822568171554596</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.0478353638997524</v>
+        <v>0.04745451602621742</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1640716446097426</v>
+        <v>-0.1633949964196678</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.02244868191205773</v>
+        <v>0.02260022568649012</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.008307214393370121</v>
+        <v>-0.00881960941384019</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.02633975842320313</v>
+        <v>-0.0291108291797475</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02096649884163604</v>
+        <v>0.02577923800657178</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.02675768710374193</v>
+        <v>-0.03177161294774355</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.008447797020416425</v>
+        <v>-0.002264571257054038</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01203802689195721</v>
+        <v>-0.01291192568352451</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02356532581053639</v>
+        <v>0.03742968392905222</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08256666120722289</v>
+        <v>0.06159152675481216</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03798459814719202</v>
+        <v>0.03789205217133063</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.006038823494974199</v>
+        <v>-0.006822208643163963</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.0170440947330377</v>
+        <v>0.04403561577253812</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04428878400625003</v>
+        <v>0.03533515650558106</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04444811983610819</v>
+        <v>0.04152605177158075</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.03163555394563722</v>
+        <v>0.003030303909669518</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.06165510734846369</v>
+        <v>0.07860530306816749</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.0423018955092862</v>
+        <v>-0.03901401638188551</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.006293603570622475</v>
+        <v>-0.01057120522222077</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.03964233085203661</v>
+        <v>0.02398916559066988</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.04930661528153912</v>
+        <v>0.04005156336305093</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.006656979301035149</v>
+        <v>0.009739341552826186</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03037721183883657</v>
+        <v>0.03152389119123766</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04821460513540099</v>
+        <v>-0.05701705776981636</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07337593559845168</v>
+        <v>-0.07291816611248403</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.04256986754636616</v>
+        <v>0.04196124821004688</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07450570652898381</v>
+        <v>0.07642564216822278</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05076466399548174</v>
+        <v>0.04931947066831466</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01669785638326871</v>
+        <v>0.01993743319802799</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.06692837230802007</v>
+        <v>0.05704303778569098</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01514029032132069</v>
+        <v>0.01511669899643509</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.09625448531135294</v>
+        <v>0.08205532552861783</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.04669459199184522</v>
+        <v>-0.04667434679156368</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.07608583639196587</v>
+        <v>0.07690651967649798</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>3.29690362210755e-06</v>
+        <v>0.0008567962572028076</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.08716322337845295</v>
+        <v>-0.08006980780080208</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.08119789807321276</v>
+        <v>-0.08230561565584027</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03169266596460463</v>
+        <v>0.0314564848411798</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.07590106370543936</v>
+        <v>0.07560201292328617</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01624927318623126</v>
+        <v>-0.01620544045213501</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05036097696215414</v>
+        <v>-0.04395778463053879</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01349828760273986</v>
+        <v>-0.01345130962848873</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.002762705463722925</v>
+        <v>0.002827861654650654</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02241444882057098</v>
+        <v>-0.02239419170653911</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01890055462107332</v>
+        <v>-0.01850981642078453</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.01811934522173186</v>
+        <v>-0.01311861582717433</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.03810284773708372</v>
+        <v>-0.03560618087698131</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1192014556676172</v>
+        <v>-0.1202620902679884</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.09838740008524427</v>
+        <v>0.0939235453821321</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09404465407546014</v>
+        <v>-0.09409412096194147</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.006224529459804895</v>
+        <v>0.001706950819770237</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.07464855230831813</v>
+        <v>-0.07523136981631673</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.06129423020418456</v>
+        <v>-0.06051621176356758</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.01667409589116464</v>
+        <v>0.0155684962060314</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02103051886617524</v>
+        <v>0.02053075955946349</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04764158550395259</v>
+        <v>-0.04735440616254627</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.03464809938681213</v>
+        <v>0.02917341644203719</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.1038704012263032</v>
+        <v>-0.09005264361788623</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.03840060358020592</v>
+        <v>-0.04606124245185717</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.05259179722958018</v>
+        <v>0.05577585493822612</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.03715641867589436</v>
+        <v>0.03601079124466677</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1114105583703662</v>
+        <v>-0.1004374428292549</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.05212618131514712</v>
+        <v>-0.041415824494203</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.0648986405260854</v>
+        <v>-0.06643442508786779</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.0280441312907922</v>
+        <v>0.01102609514800901</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.06784239920768198</v>
+        <v>0.06513547442044554</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.01069697654034807</v>
+        <v>-0.02635649715785304</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03512026221247844</v>
+        <v>-0.03237224220642099</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03827959224742328</v>
+        <v>-0.02830732081734399</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06914743248879573</v>
+        <v>0.04810720486251885</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1081958544475039</v>
+        <v>0.1045717705261633</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01158324172667635</v>
+        <v>0.01106393729011401</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.0471007524369258</v>
+        <v>0.04998107661458873</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1361373555390148</v>
+        <v>0.137528153366884</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.03401898253570357</v>
+        <v>-0.03382547593086038</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.1190509774581987</v>
+        <v>-0.1089921509353234</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01352965833357045</v>
+        <v>0.01244971772829229</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>399006.XSHE</t>
+          <t>000300.XSHG</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="C7" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>394934472.9043097</v>
+        <v>415758113.725935</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>2544.288609627634</v>
+        <v>171.6367350369692</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>2.949344729043097</v>
+        <v>3.15758113725935</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1889460695937248</v>
+        <v>0.1966687017043589</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>3.949344729043097</v>
+        <v>4.15758113725935</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>103.8539780582715</v>
+        <v>62.28809646055245</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.2978755199090111</v>
+        <v>0.185159377672468</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1131122351356631</v>
+        <v>0.1105397236220268</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.206530308086746</v>
+        <v>1.290675209537602</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.07578015085153009</v>
+        <v>0.07497022954355159</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.800911430936489</v>
+        <v>1.903033801773382</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.08814090863934283</v>
+        <v>0.08430962522344553</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01106541678030432</v>
+        <v>0.01077814253297159</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.008679032141721471</v>
+        <v>0.4961338068496597</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.00108943281854823</v>
+        <v>0.05207396854395197</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1369029705216318</v>
+        <v>0.1417176683883962</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.1635213433739894</v>
+        <v>0.2310953094189461</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.723771018538145</v>
+        <v>1.814484895445172</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.1440036902887612</v>
+        <v>0.3512196105351485</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.555822836940011</v>
+        <v>0.2558758524012207</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2816139435250485</v>
+        <v>0.2025731645647203</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.131947990285281</v>
+        <v>0.1340343356132062</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1800197479495942</v>
+        <v>0.3068817681471233</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.10127453178458</v>
+        <v>1.201663947507081</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2.005106683159905</v>
+        <v>2.136522291069918</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.544982402691261</v>
+        <v>1.730184029418815</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03713565605273914</v>
+        <v>0.02461845162329797</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.08083653882173759</v>
+        <v>0.07733734294244782</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.7083760000000011</v>
+        <v>0.6087910000000012</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.5495486959004972</v>
+        <v>0.0090481711770657</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.901102084716648</v>
+        <v>3.626480165973748</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>6.21056332903726</v>
+        <v>2.375667831443599</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.4473684210526316</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.3514741485480943</v>
+        <v>0.376543628103339</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.4149266858604883</v>
+        <v>0.1370510292236817</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.268251787779852</v>
+        <v>3.491321454714442</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.354838342040916</v>
+        <v>4.319377477240442</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="4">
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.04999034141160835</v>
+        <v>-0.03419217536940476</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1911817176424768</v>
+        <v>0.04673407409883362</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.4733735897559051</v>
+        <v>-0.3272513999069081</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.177928501347508</v>
+        <v>-0.1662347196968269</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.54</v>
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1694505397311122</v>
+        <v>0.1898758678729228</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2837584448193456</v>
+        <v>-0.02602810962039561</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.507897508439806</v>
+        <v>1.581779208831786</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.995552663038498</v>
+        <v>0.4565222986088842</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.01565096774721723</v>
+        <v>0.01634206508063428</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2903141473066612</v>
+        <v>0.3094579062422199</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.1631011567353444</v>
+        <v>0.2593740814511404</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.2410035052571005</v>
+        <v>0.7516259692068317</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2462396061680784</v>
+        <v>0.2484481294818287</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1740219643931363</v>
+        <v>-0.1053918553896047</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.131991338521219</v>
+        <v>2.198139886715348</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.579079461132574</v>
+        <v>1.57476033777681</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1972171251295796</v>
+        <v>0.1961642905739865</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3234306017478971</v>
+        <v>-0.09049888953379061</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.63123377841736</v>
+        <v>1.667462408979237</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.3568258931481662</v>
+        <v>1.259346119711678</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.02905645812916075</v>
+        <v>0.07798389232623998</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1320931959969838</v>
+        <v>0.1112519200989924</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.343088354936815</v>
+        <v>0.8246704821857224</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.01101298820271889</v>
+        <v>1.181767427503565</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.01873493408723613</v>
+        <v>-0.001506536972717507</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1625904776250709</v>
+        <v>0.08032827605762191</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.6262647681514398</v>
+        <v>-0.01210823803644217</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.017440564696673</v>
+        <v>0.2577882510799077</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.03230000000000011</v>
+        <v>-0.03344100000000005</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01518032448072848</v>
+        <v>0.006161031038974363</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.03352232819959533</v>
+        <v>0.02105059670092202</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05627377324631988</v>
+        <v>0.05768560684642088</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.004816971853442986</v>
+        <v>0.0048578123467653</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.04758895496017179</v>
+        <v>0.05261951033240586</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01497909039451439</v>
+        <v>0.0223818122570667</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1908289019974398</v>
+        <v>0.1707349929474904</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2520418154421633</v>
+        <v>0.2099074890894888</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.003470547467302465</v>
+        <v>0.009732152902397484</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.02409884125614492</v>
+        <v>0.02866696871798902</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1162713065982057</v>
+        <v>0.1175991133537919</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.08570437624281269</v>
+        <v>0.07762569302917322</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.05364254489024312</v>
+        <v>0.05556985511509649</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.003432101127728737</v>
+        <v>-0.00251656053114202</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003736886417763152</v>
+        <v>0.003745666551202786</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.004970850698006846</v>
+        <v>0.003543623429007159</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.004167014811534697</v>
+        <v>0.001976616055800795</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.01490981271961656</v>
+        <v>0.01886541900943328</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.008209963930699393</v>
+        <v>0.01069378831420664</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.004006326281857708</v>
+        <v>0.005560943803001095</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.02143513629870752</v>
+        <v>-0.01857515518807018</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.002417967048725878</v>
+        <v>-0.003061513226758183</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01258345663345839</v>
+        <v>0.01205797909433404</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01686871919829036</v>
+        <v>-0.01130051967524393</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.009592777119621809</v>
+        <v>0.005674944318299069</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.005944010322281423</v>
+        <v>0.01282498735341742</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.02119120208964098</v>
+        <v>-0.02539129096017745</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001912773597567252</v>
+        <v>0.007365072403233475</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02019964062016411</v>
+        <v>-0.02628157439466361</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.007073070517995217</v>
+        <v>0.00383575140086867</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.049717707567561</v>
+        <v>0.03329844740309018</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.04352859811584375</v>
+        <v>-0.02329238849842685</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0009925198560962745</v>
+        <v>0.006329102087570426</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01529114804990384</v>
+        <v>0.02000290839890795</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.03429009262245719</v>
+        <v>0.009157157946854566</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.005916043364077694</v>
+        <v>0.01447273695637019</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.005618231873872226</v>
+        <v>-0.002827892739398319</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.03542096214343471</v>
+        <v>0.05594011209795902</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03462592335586256</v>
+        <v>0.01836789020674945</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02460316946331553</v>
+        <v>0.02104725944981523</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.001116790974021842</v>
+        <v>0.003120903306451428</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.02682464496211834</v>
+        <v>0.04265413979143684</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01376195905036282</v>
+        <v>-0.004787477494349268</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.001738635311870684</v>
+        <v>-0.006445502514956014</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02441404384500889</v>
+        <v>0.0232262434940198</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.04053613324174554</v>
+        <v>-0.03151367318004528</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01223153529209231</v>
+        <v>0.01891069511168042</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.006026584368654886</v>
+        <v>-0.003249400222982812</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.04209534952847171</v>
+        <v>0.04040947076840196</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.02641268323278811</v>
+        <v>-0.02503135251484301</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.004381399335641301</v>
+        <v>-0.0003340834816120131</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.02135204233957211</v>
+        <v>-0.01198597766513898</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.001031655513992868</v>
+        <v>-0.007684651817467247</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.01059832914177994</v>
+        <v>0.005989945154675214</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.0002186339765248846</v>
+        <v>0.003488326247508278</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.01641972734291852</v>
+        <v>0.006198108396291202</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01467562531312772</v>
+        <v>-0.01003999140169409</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1540444072865252</v>
+        <v>0.1454892960090797</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.02177857870297517</v>
+        <v>0.02301197528233478</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.006327265017368577</v>
+        <v>-0.005988758330772948</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.004955934480261326</v>
+        <v>-0.004658605831320606</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.006309288557988513</v>
+        <v>0.02416971143141766</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.003729087050287183</v>
+        <v>-0.01340893027520673</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01535972435231714</v>
+        <v>0.01360217432104904</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01481850506328541</v>
+        <v>0.01479406316764398</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.005673987028789407</v>
+        <v>0.01766927259728135</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02132979634204113</v>
+        <v>-0.03647177030902415</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06695596477290278</v>
+        <v>0.06731367347518935</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03599419577623864</v>
+        <v>0.03324991692940094</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04203855535814194</v>
+        <v>-0.03871153175839381</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.001896959005640353</v>
+        <v>0.005752032494976911</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.006618475928761525</v>
+        <v>0.00929061201790482</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01210690500948552</v>
+        <v>0.01686340744399106</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.08254403862901105</v>
+        <v>0.08319421417332973</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.08841513421031388</v>
+        <v>0.08771094738832197</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.003306549545392889</v>
+        <v>-0.004215411285242721</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.03207113205430268</v>
+        <v>-0.03157113713762572</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01261438487521349</v>
+        <v>-0.0164392199731288</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02333065749577412</v>
+        <v>0.02801926386894782</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02897601474502887</v>
+        <v>0.01556222378630334</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.01232622611919765</v>
+        <v>0.02579770110062229</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.0120001950867501</v>
+        <v>-0.02051219020977346</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.007279872757484651</v>
+        <v>-0.008787934459211444</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0124740241460144</v>
+        <v>0.005012611463213412</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0302079240548041</v>
+        <v>0.0145311392640799</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01472003206927319</v>
+        <v>-0.01067520574348124</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.008212276246103656</v>
+        <v>0.05549276276591963</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-7.843760546577538e-05</v>
+        <v>0.006648718317448621</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.01294580052371508</v>
+        <v>-0.01424088280085245</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.001177972078977074</v>
+        <v>0.003453448687770866</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01440338781593642</v>
+        <v>0.00187819719550375</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.002103022354587147</v>
+        <v>0.01904411582953536</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.02815760250624544</v>
+        <v>-0.02682682918277135</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.006554647097481991</v>
+        <v>0.007998714756681569</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.01909261807828633</v>
+        <v>-0.0232149681618331</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.005594853766834218</v>
+        <v>-0.002691654092748186</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.006819653970062456</v>
+        <v>0.007721787453684792</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.04627965447116167</v>
+        <v>0.03344043957118314</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.00225328679399861</v>
+        <v>0.00332254375378449</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.03189196186878385</v>
+        <v>-0.001680199424818896</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01614341248713003</v>
+        <v>0.005948811447632929</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03165034357332919</v>
+        <v>0.01726731619981736</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.101224019012792</v>
+        <v>-0.02581885854811239</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05363781938835044</v>
+        <v>0.009723960632471051</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.03255680627434931</v>
+        <v>0.004021504037579504</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.03297141167875606</v>
+        <v>-0.0008165769886286922</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1437250345535783</v>
+        <v>0.04525336390604218</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3232397667897586</v>
+        <v>-0.0424112117111386</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1347290131101723</v>
+        <v>0.02802464213986555</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.1111713719731859</v>
+        <v>-0.0137239421941443</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.08344910719705079</v>
+        <v>-0.01712163066663941</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.1196833626680921</v>
+        <v>-0.08352499136604696</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.1628628981857636</v>
+        <v>0.02580502042397592</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1871857635567209</v>
+        <v>0.05485984338275207</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09213725494675873</v>
+        <v>0.1377975568765797</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2238745453894238</v>
+        <v>0.1054990346298161</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06570711714899291</v>
+        <v>0.04375574979348351</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.1612088250449768</v>
+        <v>-0.08018459897263064</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.07951775617294288</v>
+        <v>-0.004333635985859452</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.01607291353946749</v>
+        <v>-0.0431118033232093</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2822568171554596</v>
+        <v>0.2169623461215566</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04745451602621742</v>
+        <v>0.01397316593026443</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1633949964196678</v>
+        <v>-0.09906912739732787</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.02260022568649012</v>
+        <v>0.007113901252626897</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.00881960941384019</v>
+        <v>-0.0008497957115184418</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.0291108291797475</v>
+        <v>0.01719253195014447</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02577923800657178</v>
+        <v>-0.04068815079319688</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03177161294774355</v>
+        <v>-0.0313443325282069</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.002264571257054038</v>
+        <v>-0.004567048513888783</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01291192568352451</v>
+        <v>-0.02152998396283279</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03742968392905222</v>
+        <v>-0.02550667063943235</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.06159152675481216</v>
+        <v>0.04294430410457539</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03789205217133063</v>
+        <v>-0.01718780876319936</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.006822208643163963</v>
+        <v>0.0006650983948073286</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.04403561577253812</v>
+        <v>0.008143368731671874</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03533515650558106</v>
+        <v>0.01912542915704507</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04152605177158075</v>
+        <v>-0.0187222562673639</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.003030303909669518</v>
+        <v>0.005989737538494078</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07860530306816749</v>
+        <v>-0.001033219572226574</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03901401638188551</v>
+        <v>-0.00151083418267417</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.01057120522222077</v>
+        <v>-0.0005650191049899611</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.02398916559066988</v>
+        <v>-0.001645987691493822</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.04005156336305093</v>
+        <v>-0.005131052630459876</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.009739341552826186</v>
+        <v>-0.01382881720596041</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03152389119123766</v>
+        <v>-0.03559626635366486</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05701705776981636</v>
+        <v>0.02491347178398251</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07291816611248403</v>
+        <v>0.04983621647501457</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.04196124821004688</v>
+        <v>0.03216973286930913</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07642564216822278</v>
+        <v>0.02670811858461097</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04931947066831466</v>
+        <v>0.05323354178823014</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01993743319802799</v>
+        <v>-0.005693704919705112</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.05704303778569098</v>
+        <v>0.0371617877203636</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01511669899643509</v>
+        <v>-0.04062210849487791</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.08205532552861783</v>
+        <v>0.08605930767134695</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.04667434679156368</v>
+        <v>-0.005683152535128189</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.07690651967649798</v>
+        <v>0.05819661206931603</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.0008567962572028076</v>
+        <v>-0.07092931371021438</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.08006980780080208</v>
+        <v>-0.002251259050704668</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.08230561565584027</v>
+        <v>-0.03495636666174295</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.0314564848411798</v>
+        <v>-0.01919926896133051</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.07560201292328617</v>
+        <v>0.06531144963603119</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01620544045213501</v>
+        <v>-0.03013680844092881</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.04395778463053879</v>
+        <v>-0.01715874685565999</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01345130962848873</v>
+        <v>0.0208432208143976</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.002827861654650654</v>
+        <v>0.01066416714361917</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02239419170653911</v>
+        <v>-0.001864121276251351</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01850981642078453</v>
+        <v>-0.02224221997812237</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.01311861582717433</v>
+        <v>-0.002810131165308261</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.03560618087698131</v>
+        <v>0.05654186477535483</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1202620902679884</v>
+        <v>-0.02846012775050943</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.0939235453821321</v>
+        <v>0.06555447458912322</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09409412096194147</v>
+        <v>-0.05084083060430611</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.001706950819770237</v>
+        <v>0.0283760552594583</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.07523136981631673</v>
+        <v>0.005225992732102558</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.06051621176356758</v>
+        <v>-0.04302096677174694</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.0155684962060314</v>
+        <v>-0.03139527510536844</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02053075955946349</v>
+        <v>0.01492903418839542</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04735440616254627</v>
+        <v>-0.04050475954356325</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02917341644203719</v>
+        <v>-0.02763901320592244</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.09005264361788623</v>
+        <v>-0.03445950979562717</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.04606124245185717</v>
+        <v>-0.003236382361556989</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.05577585493822612</v>
+        <v>-0.02027199863137641</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.03601079124466677</v>
+        <v>0.04164357290159226</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1004374428292549</v>
+        <v>-0.01113808409867856</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.041415824494203</v>
+        <v>-0.02627526041663841</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.06643442508786779</v>
+        <v>0.009069740219172173</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01102609514800901</v>
+        <v>0.1424902604177314</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.06513547442044554</v>
+        <v>0.00498330437059602</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02635649715785304</v>
+        <v>-0.02786961088956641</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03237224220642099</v>
+        <v>-0.00593894842173126</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.02830732081734399</v>
+        <v>0.01731265834299411</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.04810720486251885</v>
+        <v>-0.003908418199046859</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1045717705261633</v>
+        <v>0.05140482157500026</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01106393729011401</v>
+        <v>0.002652083525785276</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.04998107661458873</v>
+        <v>0.0509509814294693</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.137528153366884</v>
+        <v>0.0420807478956593</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.03382547593086038</v>
+        <v>-0.01337515161561498</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.1089921509353234</v>
+        <v>-0.05855020569180502</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01244971772829229</v>
+        <v>0.007401218436128509</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_smae_ind/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2014-04-16</t>
+          <t>2015-11-02</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>415758113.725935</v>
+        <v>175331112.035018</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>171.6367350369692</v>
+        <v>157.9599179588258</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>3.15758113725935</v>
+        <v>0.7533111203501797</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1966687017043589</v>
+        <v>0.09109735419191556</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>4.15758113725935</v>
+        <v>1.75331112035018</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>62.28809646055245</v>
+        <v>60.02717255270866</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.185159377672468</v>
+        <v>0.2146879623805649</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1105397236220268</v>
+        <v>0.09861965886632881</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.290675209537602</v>
+        <v>0.6331464101600384</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.07497022954355159</v>
+        <v>0.0700901014452099</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.903033801773382</v>
+        <v>0.8908630704612999</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.08430962522344553</v>
+        <v>0.09900690681859005</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01077814253297159</v>
+        <v>0.009924751885118313</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.4961338068496597</v>
+        <v>0.1419428776092078</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.05207396854395197</v>
+        <v>0.02082272354292458</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1417176683883962</v>
+        <v>0.05925627309604984</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.2310953094189461</v>
+        <v>0.2549900951382669</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.814484895445172</v>
+        <v>0.9696588027241099</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.3512196105351485</v>
+        <v>0.2054586358179857</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2558758524012207</v>
+        <v>0.2898469548513919</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2025731645647203</v>
+        <v>0.1719931974875354</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1340343356132062</v>
+        <v>0.05760411501154378</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.3068817681471233</v>
+        <v>0.274838373769526</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.201663947507081</v>
+        <v>0.6683604362932115</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2.136522291069918</v>
+        <v>1.004458171318166</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.730184029418815</v>
+        <v>1.084447037206256</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02461845162329797</v>
+        <v>0.02160724468946903</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.07733734294244782</v>
+        <v>0.08640669447087211</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,181 +1154,161 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6087910000000012</v>
+        <v>0.02555200000000024</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.0090481711770657</v>
+        <v>-0.03826454389148182</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.626480165973748</v>
+        <v>1.94495216317438</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>2.375667831443599</v>
+        <v>2.370797931929418</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.376543628103339</v>
+        <v>-0.07011931135622645</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.1370510292236817</v>
+        <v>0.008411651128741243</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.491321454714442</v>
+        <v>-0.7640031930095059</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>4.319377477240442</v>
+        <v>-0.6084226385531546</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.03419217536940476</v>
+        <v>0.1359515792630575</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.04673407409883362</v>
+        <v>-0.07056468291410685</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3272513999069081</v>
+        <v>1.213262901012263</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.1662347196968269</v>
+        <v>-0.03715077993657741</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.54</v>
+        <v>0.4509803921568628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1898758678729228</v>
+        <v>0.01629849809376854</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>-0.02602810962039561</v>
+        <v>0.3094012519600364</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.581779208831786</v>
+        <v>0.2588077660622415</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.4565222986088842</v>
+        <v>0.7510273959157711</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.4509803921568628</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.01634206508063428</v>
+        <v>0.2516345034179699</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.3094579062422199</v>
+        <v>-0.1030172420851999</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.2593740814511404</v>
+        <v>2.230112630389824</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.7516259692068317</v>
+        <v>1.620437863617296</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2484481294818287</v>
+        <v>0.1965490115255499</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1053918553896047</v>
+        <v>-0.09020299898725596</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.198139886715348</v>
+        <v>1.67004133150607</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.57476033777681</v>
+        <v>1.263516548964198</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1961642905739865</v>
+        <v>0.06503912184631086</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.09049888953379061</v>
+        <v>0.09749160547115186</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.667462408979237</v>
+        <v>0.7109661676575315</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>1.259346119711678</v>
+        <v>1.019822670031699</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.07798389232623998</v>
+        <v>-0.00156600482557317</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.1112519200989924</v>
+        <v>0.08026245934851958</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.8246704821857224</v>
+        <v>-0.01395573073563789</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>1.181767427503565</v>
+        <v>0.2556916892955816</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>-0.001506536972717507</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.08032827605762191</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>-0.01210823803644217</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0.2577882510799077</v>
-      </c>
-      <c r="F10" s="13" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1343,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1433,358 +1413,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.03344100000000005</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.006161031038974363</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02105059670092202</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05768560684642088</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.0048578123467653</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.05261951033240586</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.0223818122570667</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1707349929474904</v>
+        <v>0.01841099999999996</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2099074890894888</v>
+        <v>0.007011903838430866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.009732152902397484</v>
+        <v>-0.02570908154827845</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.02866696871798902</v>
+        <v>-0.005313325046587769</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1175991133537919</v>
+        <v>0.01419290314596311</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.07762569302917322</v>
+        <v>-0.01326708882987138</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.05556985511509649</v>
+        <v>0.005674586018640015</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.00251656053114202</v>
+        <v>0.01282474251540155</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003745666551202786</v>
+        <v>-0.02539083706945733</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.003543623429007159</v>
+        <v>-0.001026982080479022</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.001976616055800795</v>
+        <v>-0.02391556706831788</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.01886541900943328</v>
+        <v>0.003916880289502433</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.01069378831420664</v>
+        <v>0.01012801504769123</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.005560943803001095</v>
+        <v>-0.0232250623773449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.01857515518807018</v>
+        <v>0.006314745276262412</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.003061513226758183</v>
+        <v>0.003925336289926751</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01205797909433404</v>
+        <v>0.0135889478218445</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01130051967524393</v>
+        <v>-0.0009492873688460302</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.005674944318299069</v>
+        <v>-0.00253896340182147</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01282498735341742</v>
+        <v>0.05581543040001313</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.02539129096017745</v>
+        <v>0.01972196727183206</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.007365072403233475</v>
+        <v>0.02104713581038808</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02628157439466361</v>
+        <v>0.003121298774383385</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.00383575140086867</v>
+        <v>0.02116419373656941</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03329844740309018</v>
+        <v>-0.005000926266452987</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02329238849842685</v>
+        <v>-0.006444914644089028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.006329102087570426</v>
+        <v>0.02322462129254443</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02000290839890795</v>
+        <v>-0.03151610944662342</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009157157946854566</v>
+        <v>0.01890891137990613</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01447273695637019</v>
+        <v>-0.003249181305048254</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002827892739398319</v>
+        <v>0.04040870984902689</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.05594011209795902</v>
+        <v>-0.02502918058107306</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01836789020674945</v>
+        <v>-0.0003580712977824252</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02104725944981523</v>
+        <v>-0.01197978524308252</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.003120903306451428</v>
+        <v>-0.007684807536494698</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04265413979143684</v>
+        <v>0.005972002719830671</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.004787477494349268</v>
+        <v>0.003488743208688971</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.006445502514956014</v>
+        <v>0.006194661148927416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.0232262434940198</v>
+        <v>-0.01003954780706773</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03151367318004528</v>
+        <v>0.1454885938344406</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.01891069511168042</v>
+        <v>0.02452942024574267</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.003249400222982812</v>
+        <v>-0.008795356677121835</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.04040947076840196</v>
+        <v>-0.004656761058624115</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.02503135251484301</v>
+        <v>0.02630019097731284</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.0003340834816120131</v>
+        <v>-0.010995900762787</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.01198597766513898</v>
+        <v>0.01360160764725449</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.007684651817467247</v>
+        <v>0.01479319109604837</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.005989945154675214</v>
+        <v>0.01783293586518764</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.003488326247508278</v>
+        <v>-0.03397685758623581</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.006198108396291202</v>
+        <v>0.06371898925305564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01003999140169409</v>
+        <v>0.03345036437341009</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1454892960090797</v>
+        <v>-0.03871001266786311</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.02301197528233478</v>
+        <v>0.005776690163995069</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.005988758330772948</v>
+        <v>0.00928563439367025</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.004658605831320606</v>
+        <v>0.01686188467109884</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02416971143141766</v>
+        <v>0.08321143605257952</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01340893027520673</v>
+        <v>0.08771385396747422</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01360217432104904</v>
+        <v>-0.004226031416543763</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01479406316764398</v>
+        <v>-0.03157219176503978</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.01766927259728135</v>
+        <v>-0.01643808313713757</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03647177030902415</v>
+        <v>0.02802017290336334</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06731367347518935</v>
+        <v>0.01566284504828119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03324991692940094</v>
+        <v>0.02579537039451751</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.03871153175839381</v>
+        <v>-0.01260232180707144</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.005752032494976911</v>
+        <v>-0.009149481449546082</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.00929061201790482</v>
+        <v>0.008316613889627789</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01686340744399106</v>
+        <v>0.01459075756867434</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.08319421417332973</v>
+        <v>-0.03265466217960411</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.08771094738832197</v>
+        <v>0.06111553157175731</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.004215411285242721</v>
+        <v>0.003834447181828127</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.03157113713762572</v>
+        <v>-0.01423410222365928</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.0164392199731288</v>
+        <v>0.003453323431247046</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02801926386894782</v>
+        <v>0.0006809853249114539</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01556222378630334</v>
+        <v>0.01705358921729005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02579770110062229</v>
+        <v>-0.02679064109959739</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02051219020977346</v>
+        <v>0.008001100048858012</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.008787934459211444</v>
+        <v>-0.02331819614567687</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.005012611463213412</v>
+        <v>-0.002685853770447943</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0145311392640799</v>
+        <v>0.00772228843861722</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01067520574348124</v>
+        <v>0.0334408069271972</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.05549276276591963</v>
+        <v>0.003322451151784866</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.006648718317448621</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.01424088280085245</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.003453448687770866</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.00187819719550375</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.01904411582953536</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.02682682918277135</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.007998714756681569</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>-0.0232149681618331</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>-0.002691654092748186</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.007721787453684792</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.03344043957118314</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.00332254375378449</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1799,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1877,7 +1816,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1889,358 +1828,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.001680199424818896</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.005948811447632929</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01726731619981736</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.02581885854811239</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.009723960632471051</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.004021504037579504</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.0008165769886286922</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.04525336390604218</v>
+        <v>0.003233967005843219</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.0424112117111386</v>
+        <v>-0.04136473869717328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.02802464213986555</v>
+        <v>0.2087477207904329</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.0137239421941443</v>
+        <v>0.01181141597505664</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.01712163066663941</v>
+        <v>-0.09694740602857854</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08352499136604696</v>
+        <v>0.005092030933591341</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.02580502042397592</v>
+        <v>-0.0008501625224484055</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.05485984338275207</v>
+        <v>0.01719230375516889</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.1377975568765797</v>
+        <v>-0.04068773949701343</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.1054990346298161</v>
+        <v>-0.03942101209760407</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.04375574979348351</v>
+        <v>-0.002211719770308651</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.08018459897263064</v>
+        <v>-0.02145095402161024</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.004333635985859452</v>
+        <v>-0.04754263795461822</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.0431118033232093</v>
+        <v>0.04301470866145629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2169623461215566</v>
+        <v>-0.01720187495509984</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.01397316593026443</v>
+        <v>-0.01520322642838901</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.09906912739732787</v>
+        <v>0.01238093236896942</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.007113901252626897</v>
+        <v>0.003622143648400078</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.0008497957115184418</v>
+        <v>-0.01843785157386491</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01719253195014447</v>
+        <v>0.005868491906799056</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.04068815079319688</v>
+        <v>0.0002471456020247675</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0313443325282069</v>
+        <v>-0.001510947017169473</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.004567048513888783</v>
+        <v>-0.0005646223951037976</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.02152998396283279</v>
+        <v>-0.02230191022443773</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.02550667063943235</v>
+        <v>-0.005345257007219995</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04294430410457539</v>
+        <v>-0.01382823419271495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.01718780876319936</v>
+        <v>-0.03559796810631932</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.0006650983948073286</v>
+        <v>0.02491097808736753</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.008143368731671874</v>
+        <v>0.04983429944624818</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01912542915704507</v>
+        <v>0.03216992352303483</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.0187222562673639</v>
+        <v>0.02670732465044034</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.005989737538494078</v>
+        <v>0.0532357671301944</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.001033219572226574</v>
+        <v>-0.005717277614445071</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.00151083418267417</v>
+        <v>0.0371681794406391</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.0005650191049899611</v>
+        <v>-0.04062222393617365</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.001645987691493822</v>
+        <v>0.08603974999001873</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.005131052630459876</v>
+        <v>-0.005682833075666083</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.01382881720596041</v>
+        <v>0.05819299877121886</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.03559626635366486</v>
+        <v>-0.07092887023145322</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.02491347178398251</v>
+        <v>-0.002251894027174517</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.04983621647501457</v>
+        <v>-0.03336887388284782</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.03216973286930913</v>
+        <v>-0.02190510397920575</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.02670811858461097</v>
+        <v>0.06531338163537392</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05323354178823014</v>
+        <v>-0.02813591594859211</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.005693704919705112</v>
+        <v>-0.01483496253668781</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.0371617877203636</v>
+        <v>0.02084265162636867</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.04062210849487791</v>
+        <v>0.0106632575968344</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.08605930767134695</v>
+        <v>-0.001702671696129254</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.005683152535128189</v>
+        <v>-0.01973133808854777</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.05819661206931603</v>
+        <v>-0.006174280087779094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.07092931371021438</v>
+        <v>0.05674981763729914</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.002251259050704668</v>
+        <v>-0.02845788010022365</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.03495636666174295</v>
+        <v>0.06558036881861296</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.01919926896133051</v>
+        <v>-0.05084559339242745</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06531144963603119</v>
+        <v>0.0283744765730245</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.03013680844092881</v>
+        <v>0.005241865061070605</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01715874685565999</v>
+        <v>-0.04301841566254616</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.0208432208143976</v>
+        <v>-0.03140556752940116</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01066416714361917</v>
+        <v>0.01492797774347521</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.001864121276251351</v>
+        <v>-0.04050370296233086</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02224221997812237</v>
+        <v>-0.02763822830262896</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.002810131165308261</v>
+        <v>-0.03436322420670324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.05654186477535483</v>
+        <v>-0.003238613376251642</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.02846012775050943</v>
+        <v>-0.01258678868536056</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.06555447458912322</v>
+        <v>0.04127882044727094</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.05084083060430611</v>
+        <v>-0.00792235405949282</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.0283760552594583</v>
+        <v>-0.0262186029127176</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.005225992732102558</v>
+        <v>-0.01349045867204113</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.04302096677174694</v>
+        <v>0.1485790322141782</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.03139527510536844</v>
+        <v>0.002190507617848336</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.01492903418839542</v>
+        <v>-0.02786292285543068</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04050475954356325</v>
+        <v>-0.005939107065491611</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.02763901320592244</v>
+        <v>0.01610476709370068</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.03445950979562717</v>
+        <v>-0.005864799559411216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.003236382361556989</v>
+        <v>0.05144318294321115</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02027199863137641</v>
+        <v>0.002654468583877856</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.04164357290159226</v>
+        <v>0.05083927894019924</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01113808409867856</v>
+        <v>0.04208673669342811</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.02627526041663841</v>
+        <v>-0.01337465924136905</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.009069740219172173</v>
+        <v>-0.05854987618545704</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1424902604177314</v>
+        <v>0.007401125834129108</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.00498330437059602</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02786961088956641</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.00593894842173126</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01731265834299411</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.003908418199046859</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.05140482157500026</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.002652083525785276</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.0509509814294693</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.0420807478956593</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-0.01337515161561498</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-0.05855020569180502</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.007401218436128509</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
